--- a/October'21/19.10.2021/Daily Sales Info.xlsx
+++ b/October'21/19.10.2021/Daily Sales Info.xlsx
@@ -31472,8 +31472,8 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32271,7 +32271,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="29">
-        <v>49329</v>
+        <v>49334</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30">
@@ -32293,15 +32293,15 @@
       <c r="L16" s="20"/>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>51679</v>
+        <v>51684</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>54144</v>
+        <v>54149</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>1421.1724999999999</v>
+        <v>1421.31</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26">
@@ -32309,22 +32309,22 @@
       </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>52621.827499999999</v>
+        <v>52626.69</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>490.95049999999998</v>
+        <v>490.99799999999999</v>
       </c>
       <c r="T16" s="63">
         <f t="shared" si="5"/>
-        <v>389.95049999999998</v>
+        <v>389.99799999999999</v>
       </c>
       <c r="U16" s="69">
         <v>300</v>
       </c>
       <c r="V16" s="70">
         <f t="shared" si="6"/>
-        <v>52321.827499999999</v>
+        <v>52326.69</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -32824,7 +32824,7 @@
         <v>36</v>
       </c>
       <c r="D25" s="29">
-        <v>11048</v>
+        <v>11562</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30">
@@ -32844,15 +32844,15 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>13878</v>
+        <v>14392</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>14788</v>
+        <v>15302</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="2"/>
-        <v>381.64499999999998</v>
+        <v>395.78000000000003</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26">
@@ -32860,22 +32860,22 @@
       </c>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
-        <v>14306.355</v>
+        <v>14806.22</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="4"/>
-        <v>131.84100000000001</v>
+        <v>136.72399999999999</v>
       </c>
       <c r="T25" s="63">
         <f t="shared" si="5"/>
-        <v>31.841000000000008</v>
+        <v>36.72399999999999</v>
       </c>
       <c r="U25" s="69">
         <v>45</v>
       </c>
       <c r="V25" s="70">
         <f t="shared" si="6"/>
-        <v>14261.355</v>
+        <v>14761.22</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -32889,7 +32889,7 @@
         <v>46</v>
       </c>
       <c r="D26" s="29">
-        <v>16848</v>
+        <v>16888</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="30"/>
@@ -32905,15 +32905,15 @@
       <c r="L26" s="20"/>
       <c r="M26" s="20">
         <f t="shared" si="0"/>
-        <v>18468</v>
+        <v>18508</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>20378</v>
+        <v>20418</v>
       </c>
       <c r="O26" s="25">
         <f t="shared" si="2"/>
-        <v>507.87</v>
+        <v>508.97</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26">
@@ -32921,22 +32921,22 @@
       </c>
       <c r="R26" s="24">
         <f t="shared" si="3"/>
-        <v>19775.13</v>
+        <v>19814.03</v>
       </c>
       <c r="S26" s="25">
         <f t="shared" si="4"/>
-        <v>175.446</v>
+        <v>175.82599999999999</v>
       </c>
       <c r="T26" s="63">
         <f t="shared" si="5"/>
-        <v>80.445999999999998</v>
+        <v>80.825999999999993</v>
       </c>
       <c r="U26" s="69">
         <v>90</v>
       </c>
       <c r="V26" s="70">
         <f t="shared" si="6"/>
-        <v>19685.13</v>
+        <v>19724.03</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -33006,7 +33006,7 @@
       <c r="C28" s="86"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="7">SUM(D7:D27)</f>
-        <v>434988</v>
+        <v>435547</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="7"/>
@@ -33042,15 +33042,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="8"/>
-        <v>456788</v>
+        <v>457347</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="8"/>
-        <v>491889</v>
+        <v>492448</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="8"/>
-        <v>12561.670000000002</v>
+        <v>12577.042500000001</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="8"/>
@@ -33062,15 +33062,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="8"/>
-        <v>477599.32999999996</v>
+        <v>478142.95750000002</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="8"/>
-        <v>4339.4860000000008</v>
+        <v>4344.7965000000004</v>
       </c>
       <c r="T28" s="45">
         <f t="shared" si="8"/>
-        <v>2611.4859999999994</v>
+        <v>2616.7964999999999</v>
       </c>
       <c r="U28" s="45">
         <f t="shared" si="8"/>
@@ -33078,7 +33078,7 @@
       </c>
       <c r="V28" s="47">
         <f t="shared" si="8"/>
-        <v>475162.32999999996</v>
+        <v>475705.95750000002</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33089,7 +33089,7 @@
       <c r="C29" s="106"/>
       <c r="D29" s="82">
         <f>D4+D5-D28</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E29" s="82">
         <f t="shared" ref="E29:L29" si="9">E4+E5-E28</f>
@@ -35186,7 +35186,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
@@ -36364,7 +36364,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -36736,7 +36736,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
@@ -37914,7 +37914,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -38286,7 +38286,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
@@ -39464,7 +39464,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -39836,7 +39836,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
@@ -41014,7 +41014,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -41386,7 +41386,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
@@ -42564,7 +42564,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -42936,7 +42936,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
@@ -44114,7 +44114,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -44486,7 +44486,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
@@ -45664,7 +45664,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -46036,7 +46036,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
@@ -47214,7 +47214,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -47586,7 +47586,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
@@ -48764,7 +48764,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -49136,7 +49136,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
@@ -50314,7 +50314,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -52396,7 +52396,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
@@ -53574,7 +53574,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -53946,7 +53946,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
@@ -55124,7 +55124,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -55402,8 +55402,8 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7:D27"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56350,7 +56350,7 @@
       </c>
       <c r="D16" s="21">
         <f>'1'!D16+'2'!D16+'3'!D16+'4'!D16+'5'!D16+'6'!D16+'7'!D16+'8'!D16+'9'!D16+'10'!D16+'11'!D16+'12'!D16+'13'!D16+'14'!D16+'15'!D16+'16'!D16+'17'!D16+'18'!D16+'19'!D16+'20'!D16+'21'!D16+'22'!D16+'23'!D16+'24'!D16+'25'!D16+'26'!D16+'27'!D16+'28'!D16+'29'!D16+'30'!D16+'31'!D16</f>
-        <v>305940</v>
+        <v>305945</v>
       </c>
       <c r="E16" s="21">
         <f>'1'!E16+'2'!E16+'3'!E16+'4'!E16+'5'!E16+'6'!E16+'7'!E16+'8'!E16+'9'!E16+'10'!E16+'11'!E16+'12'!E16+'13'!E16+'14'!E16+'15'!E16+'16'!E16+'17'!E16+'18'!E16+'19'!E16+'20'!E16+'21'!E16+'22'!E16+'23'!E16+'24'!E16+'25'!E16+'26'!E16+'27'!E16+'28'!E16+'29'!E16+'30'!E16+'31'!E16</f>
@@ -56386,15 +56386,15 @@
       </c>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>322110</v>
+        <v>322115</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>336181</v>
+        <v>336186</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>8858.0249999999996</v>
+        <v>8858.1625000000004</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26">
@@ -56403,15 +56403,15 @@
       </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>325101.97499999998</v>
+        <v>325106.83750000002</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>3060.0450000000001</v>
+        <v>3060.0924999999997</v>
       </c>
       <c r="T16" s="27">
         <f t="shared" si="5"/>
-        <v>839.04500000000007</v>
+        <v>839.09249999999975</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -57034,7 +57034,7 @@
       </c>
       <c r="D25" s="21">
         <f>'1'!D25+'2'!D25+'3'!D25+'4'!D25+'5'!D25+'6'!D25+'7'!D25+'8'!D25+'9'!D25+'10'!D25+'11'!D25+'12'!D25+'13'!D25+'14'!D25+'15'!D25+'16'!D25+'17'!D25+'18'!D25+'19'!D25+'20'!D25+'21'!D25+'22'!D25+'23'!D25+'24'!D25+'25'!D25+'26'!D25+'27'!D25+'28'!D25+'29'!D25+'30'!D25+'31'!D25</f>
-        <v>148743</v>
+        <v>149257</v>
       </c>
       <c r="E25" s="21">
         <f>'1'!E25+'2'!E25+'3'!E25+'4'!E25+'5'!E25+'6'!E25+'7'!E25+'8'!E25+'9'!E25+'10'!E25+'11'!E25+'12'!E25+'13'!E25+'14'!E25+'15'!E25+'16'!E25+'17'!E25+'18'!E25+'19'!E25+'20'!E25+'21'!E25+'22'!E25+'23'!E25+'24'!E25+'25'!E25+'26'!E25+'27'!E25+'28'!E25+'29'!E25+'30'!E25+'31'!E25</f>
@@ -57070,15 +57070,15 @@
       </c>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>158373</v>
+        <v>158887</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>163968</v>
+        <v>164482</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="2"/>
-        <v>4355.2574999999997</v>
+        <v>4369.3924999999999</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26">
@@ -57087,15 +57087,15 @@
       </c>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
-        <v>158268.74249999999</v>
+        <v>158768.60750000001</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="4"/>
-        <v>1504.5435</v>
+        <v>1509.4265</v>
       </c>
       <c r="T25" s="27">
         <f t="shared" si="5"/>
-        <v>160.54349999999999</v>
+        <v>165.42650000000003</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -57110,7 +57110,7 @@
       </c>
       <c r="D26" s="21">
         <f>'1'!D26+'2'!D26+'3'!D26+'4'!D26+'5'!D26+'6'!D26+'7'!D26+'8'!D26+'9'!D26+'10'!D26+'11'!D26+'12'!D26+'13'!D26+'14'!D26+'15'!D26+'16'!D26+'17'!D26+'18'!D26+'19'!D26+'20'!D26+'21'!D26+'22'!D26+'23'!D26+'24'!D26+'25'!D26+'26'!D26+'27'!D26+'28'!D26+'29'!D26+'30'!D26+'31'!D26</f>
-        <v>174506</v>
+        <v>174546</v>
       </c>
       <c r="E26" s="21">
         <f>'1'!E26+'2'!E26+'3'!E26+'4'!E26+'5'!E26+'6'!E26+'7'!E26+'8'!E26+'9'!E26+'10'!E26+'11'!E26+'12'!E26+'13'!E26+'14'!E26+'15'!E26+'16'!E26+'17'!E26+'18'!E26+'19'!E26+'20'!E26+'21'!E26+'22'!E26+'23'!E26+'24'!E26+'25'!E26+'26'!E26+'27'!E26+'28'!E26+'29'!E26+'30'!E26+'31'!E26</f>
@@ -57146,15 +57146,15 @@
       </c>
       <c r="M26" s="20">
         <f t="shared" si="0"/>
-        <v>184626</v>
+        <v>184666</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>201180</v>
+        <v>201220</v>
       </c>
       <c r="O26" s="25">
         <f t="shared" si="2"/>
-        <v>5077.2150000000001</v>
+        <v>5078.3149999999996</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26">
@@ -57163,15 +57163,15 @@
       </c>
       <c r="R26" s="24">
         <f t="shared" si="3"/>
-        <v>194538.785</v>
+        <v>194577.685</v>
       </c>
       <c r="S26" s="25">
         <f t="shared" si="4"/>
-        <v>1753.9469999999999</v>
+        <v>1754.327</v>
       </c>
       <c r="T26" s="27">
         <f t="shared" si="5"/>
-        <v>189.94699999999989</v>
+        <v>190.327</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -57258,7 +57258,7 @@
       <c r="C28" s="86"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>3962017</v>
+        <v>3962576</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -57294,15 +57294,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>4181757</v>
+        <v>4182316</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>4568517</v>
+        <v>4569076</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>114998.3175</v>
+        <v>115013.69000000002</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -57314,15 +57314,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>4423277.682500001</v>
+        <v>4423821.3100000005</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>39726.691500000001</v>
+        <v>39732.002</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>9485.6914999999972</v>
+        <v>9491.0019999999968</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -57333,7 +57333,7 @@
       <c r="C29" s="89"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>796736</v>
+        <v>796177</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -57615,8 +57615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
